--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -540,40 +540,40 @@
         <v>5.034312</v>
       </c>
       <c r="I2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J2">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.817512416424</v>
+        <v>0.09399060504000001</v>
       </c>
       <c r="R2">
-        <v>7.357611747816</v>
+        <v>0.8459154453600001</v>
       </c>
       <c r="S2">
-        <v>0.1055703096066758</v>
+        <v>0.02069556536108173</v>
       </c>
       <c r="T2">
-        <v>0.1055703096066758</v>
+        <v>0.02069556536108173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.034312</v>
       </c>
       <c r="I3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J3">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,13 +617,13 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
         <v>3.129246112104</v>
@@ -632,10 +632,10 @@
         <v>28.163215008936</v>
       </c>
       <c r="S3">
-        <v>0.4040984262176247</v>
+        <v>0.6890211784081863</v>
       </c>
       <c r="T3">
-        <v>0.4040984262176248</v>
+        <v>0.6890211784081864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.034312</v>
       </c>
       <c r="I4">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="J4">
-        <v>0.551436927751233</v>
+        <v>0.7635196712427992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.32344335864</v>
+        <v>0.244350401544</v>
       </c>
       <c r="R4">
-        <v>2.91099022776</v>
+        <v>2.199153613896</v>
       </c>
       <c r="S4">
-        <v>0.04176819192693237</v>
+        <v>0.05380292747353101</v>
       </c>
       <c r="T4">
-        <v>0.04176819192693237</v>
+        <v>0.05380292747353101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H5">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J5">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.6650005878425556</v>
+        <v>0.02911114149</v>
       </c>
       <c r="R5">
-        <v>5.985005290583</v>
+        <v>0.26200027341</v>
       </c>
       <c r="S5">
-        <v>0.08587553722333775</v>
+        <v>0.006409912258630496</v>
       </c>
       <c r="T5">
-        <v>0.08587553722333779</v>
+        <v>0.006409912258630497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H6">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I6">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J6">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>2.545466542460333</v>
+        <v>0.9692024674990001</v>
       </c>
       <c r="R6">
-        <v>22.909198882143</v>
+        <v>8.722822207491001</v>
       </c>
       <c r="S6">
-        <v>0.3287114490033609</v>
+        <v>0.2134063612603727</v>
       </c>
       <c r="T6">
-        <v>0.328711449003361</v>
+        <v>0.2134063612603727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.365043666666667</v>
+        <v>0.519749</v>
       </c>
       <c r="H7">
-        <v>4.095131</v>
+        <v>1.559247</v>
       </c>
       <c r="I7">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="J7">
-        <v>0.448563072248767</v>
+        <v>0.2364803287572008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.2631030664588889</v>
+        <v>0.07568117163900001</v>
       </c>
       <c r="R7">
-        <v>2.36792759813</v>
+        <v>0.6811305447510001</v>
       </c>
       <c r="S7">
-        <v>0.03397608602206825</v>
+        <v>0.01666405523819756</v>
       </c>
       <c r="T7">
-        <v>0.03397608602206827</v>
+        <v>0.01666405523819756</v>
       </c>
     </row>
   </sheetData>
